--- a/SampleProject/Common/Table/String_Common_En.xlsx
+++ b/SampleProject/Common/Table/String_Common_En.xlsx
@@ -390,171 +390,10 @@
     <t>The &lt;color=#FF0000&gt;booster&lt;/color&gt; consumes the yellow gauge at the bottom left and increases speed while evading all attacks during the activation period.</t>
   </si>
   <si>
-    <t>Collection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyShip1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RocketLauncher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollideShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeDrone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlashSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vortex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long Snake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복파장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호위장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건무장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진위장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter your Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch to go next &gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoCannonTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RocketLauncherTurret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinerDrone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After double-tapping the screen, the &lt;color=#FF0000&gt;booster&lt;/color&gt; is activated.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial : Base Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial : Ranking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 Dia
-  $0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20000G
 200Dia</t>
   </si>
   <si>
-    <t>Current Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go back to Lobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage, Attack Speed, Penetration, Projectile Speed</t>
   </si>
   <si>
@@ -570,24 +409,13 @@
     <t>Damage, Attack Speed, Life Steal</t>
   </si>
   <si>
-    <t>Damage, Attack Speed, Number of Projectiles, Projectile Speed, Duration</t>
-  </si>
-  <si>
     <t>Damage, Attack Speed, Number of Projectiles</t>
   </si>
   <si>
     <t>Projectile Speed, Duration</t>
   </si>
   <si>
-    <t>Exit?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserCannon</t>
+    <t>Formation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,6 +423,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RocketLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollideShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlashSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Dustpan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,7 +443,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yoke</t>
+    <t>Watter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,15 +459,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건위장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진무장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분위장군</t>
+    <t>복파장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위장군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,47 +475,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양무장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보국장군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천하대장군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Best Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ranking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter your name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enter your Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -693,15 +501,439 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Change Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Obtained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch Ad to Revive (Once)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoCannonTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinerDrone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownS_20019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownS_20022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownS_20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle_20201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한거자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한맹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공융</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain 20 golds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자하선인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사마휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허자장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…According to the manual, you are approved as the first encountered &lt;color=#FF0000&gt;Administrator&lt;/color&gt; after … years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unfortunately, this place is in the middle of enemy territory, far from where you came from.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...Good luck.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The &lt;color=#FF0000&gt;black scrap metal&lt;/color&gt; is used to enhance the base upon &lt;color=#FF0000&gt;return&lt;/color&gt; to the base.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have successfully enhanced your &lt;color=#FF0000&gt;ship&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...Administrator's danger detected. Initiating &lt;color=#FF0000&gt;Time Warp&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait on the astroid for a certain amount of time until it &lt;color=#FF0000&gt;blinks&lt;/color&gt; and warps to the base. Success is achieved when the astroid &lt;color=#FF0000&gt;disappears&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The &lt;color=#FF0000&gt;hourglass&lt;/color&gt; at the bottom right speeds up the time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a place where &lt;color=#FF0000&gt;permanent upgrades&lt;/color&gt; can be maintained even within the Time Warp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can upgrade the corresponding stats using the &lt;color=#FF0000&gt;astroid&lt;/color&gt; obtained in each warp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you lack the astroid for the desired stat, you can exchange &lt;color=#FF0000&gt;gold&lt;/color&gt; for astroid at the &lt;color=#FF0000&gt;mineral converter&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After double-tapping the screen, the &lt;color=#FF0000&gt;booster&lt;/color&gt; is activated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial : First Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial : Base Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial : Time Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial : Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 Dia
+  $0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000G
+50Dia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000G
+100Dia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Ads
+  200Dia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건위장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진위장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보국장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Confirm Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownS_20016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DURAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRTMETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGER : TOO MANY EMEMIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyShip1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeDrone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage, Attack Speed, Projectile Speed, Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건무장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진무장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양무장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter your name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter your Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter your Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mineral</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit</t>
+    <t>Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,23 +945,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Touch to go next &gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Login is required for the Ranking.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value Obtained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watch Ad to Revive (Once)</t>
+    <t>Go back to Lobby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,47 +961,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnergyShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TownS_20016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TownS_20019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TownS_20022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town_20024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TownS_20025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castle_20201</t>
+    <t>RocketLauncherTurret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town_20017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -785,107 +973,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Repair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PRJNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FIRERT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DURAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRJNUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRJNUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간옹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최염</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문추</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태사자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수원진</t>
+    <t>Upgrade Success!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Level Reached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been Logged out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign Up Success!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Already Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchased!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad is not ready yet.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -893,10 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여위황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,18 +1041,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,18 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한거자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한맹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계옹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>견초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,62 +1065,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공융</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Repair health by 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gain 20 golds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자하선인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사마휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허자장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…According to the manual, you are approved as the first encountered &lt;color=#FF0000&gt;Administrator&lt;/color&gt; after … years.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unfortunately, this place is in the middle of enemy territory, far from where you came from.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…The only helpful feature in this base is the &lt;color=#FF0000&gt;Time Warp&lt;/color&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,42 +1077,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>...Good luck.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The &lt;color=#FF0000&gt;black scrap metal&lt;/color&gt; is used to enhance the base upon &lt;color=#FF0000&gt;return&lt;/color&gt; to the base.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The number at the &lt;color=#FF0000&gt;top left&lt;/color&gt; indicates the required amount of scrap metal.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You have successfully enhanced your &lt;color=#FF0000&gt;ship&lt;/color&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>...Administrator's danger detected. Initiating &lt;color=#FF0000&gt;Time Warp&lt;/color&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>you can find &lt;color=#FF0000&gt;astroids&lt;/color&gt; needed for permanent upgrades during Time Warps if you venture a certain distance from the base.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wait on the astroid for a certain amount of time until it &lt;color=#FF0000&gt;blinks&lt;/color&gt; and warps to the base. Success is achieved when the astroid &lt;color=#FF0000&gt;disappears&lt;/color&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It is not recommended to venture &lt;color=#FF0000&gt;further into space&lt;/color&gt; beyond the astroids.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The &lt;color=#FF0000&gt;hourglass&lt;/color&gt; at the bottom right speeds up the time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Use it when you feel you are sufficiently &lt;color=#FF0000&gt;strong&lt;/color&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,26 +1097,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a place where &lt;color=#FF0000&gt;permanent upgrades&lt;/color&gt; can be maintained even within the Time Warp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can upgrade the corresponding stats using the &lt;color=#FF0000&gt;astroid&lt;/color&gt; obtained in each warp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you lack the astroid for the desired stat, you can exchange &lt;color=#FF0000&gt;gold&lt;/color&gt; for astroid at the &lt;color=#FF0000&gt;mineral converter&lt;/color&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Try to use it in appropriate situations.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial : First Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial : EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1097,19 +1121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial : Time Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial : Booster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tutorial : Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1128,21 +1144,6 @@
   <si>
     <t>230 Dia
   $1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000G
-50Dia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000G
-100Dia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Ads
-  200Dia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1707,7 +1708,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1715,7 +1716,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1723,7 +1724,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1731,7 +1732,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1739,7 +1740,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1752,7 +1753,7 @@
         <v>11001</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1760,7 +1761,7 @@
         <v>11002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1768,7 +1769,7 @@
         <v>11003</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1776,7 +1777,7 @@
         <v>11004</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1784,7 +1785,7 @@
         <v>11005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1792,7 +1793,7 @@
         <v>11006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1800,7 +1801,7 @@
         <v>11007</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1808,7 +1809,7 @@
         <v>11008</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1816,7 +1817,7 @@
         <v>11009</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1824,7 +1825,7 @@
         <v>11010</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1832,7 +1833,7 @@
         <v>11011</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1840,7 +1841,7 @@
         <v>11012</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1848,7 +1849,7 @@
         <v>11013</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1861,7 +1862,7 @@
         <v>11201</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1869,7 +1870,7 @@
         <v>11202</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1877,7 +1878,7 @@
         <v>11203</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1885,7 +1886,7 @@
         <v>11204</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1893,7 +1894,7 @@
         <v>11205</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1901,7 +1902,7 @@
         <v>11206</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1909,7 +1910,7 @@
         <v>11207</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1917,7 +1918,7 @@
         <v>11208</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1933,7 +1934,7 @@
         <v>11210</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1941,7 +1942,7 @@
         <v>11211</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1949,7 +1950,7 @@
         <v>11212</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1957,7 +1958,7 @@
         <v>11213</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1965,7 +1966,7 @@
         <v>11214</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1973,7 +1974,7 @@
         <v>11215</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1981,7 +1982,7 @@
         <v>11216</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1989,7 +1990,7 @@
         <v>11217</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1997,7 +1998,7 @@
         <v>11218</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2005,7 +2006,7 @@
         <v>11219</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2013,7 +2014,7 @@
         <v>11220</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2021,7 +2022,7 @@
         <v>11221</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2085,7 +2086,7 @@
         <v>11229</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2293,7 +2294,7 @@
         <v>11255</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2306,7 +2307,7 @@
         <v>11401</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2314,7 +2315,7 @@
         <v>11402</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2322,7 +2323,7 @@
         <v>11403</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2330,7 +2331,7 @@
         <v>11404</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2338,7 +2339,7 @@
         <v>11405</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2346,7 +2347,7 @@
         <v>11406</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2354,7 +2355,7 @@
         <v>11407</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2362,7 +2363,7 @@
         <v>11408</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2370,7 +2371,7 @@
         <v>11409</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2378,7 +2379,7 @@
         <v>11410</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2386,7 +2387,7 @@
         <v>11411</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2394,7 +2395,7 @@
         <v>11412</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2402,7 +2403,7 @@
         <v>11413</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2410,7 +2411,7 @@
         <v>11414</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2418,7 +2419,7 @@
         <v>11415</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2426,7 +2427,7 @@
         <v>11416</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2434,7 +2435,7 @@
         <v>11417</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="49.5">
@@ -2442,7 +2443,7 @@
         <v>11418</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2450,7 +2451,7 @@
         <v>11419</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2458,7 +2459,7 @@
         <v>11420</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2466,7 +2467,7 @@
         <v>11421</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2474,7 +2475,7 @@
         <v>11422</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2482,7 +2483,7 @@
         <v>11423</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2490,7 +2491,7 @@
         <v>11424</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2498,7 +2499,7 @@
         <v>11425</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2506,7 +2507,7 @@
         <v>11426</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2514,7 +2515,7 @@
         <v>11427</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2522,7 +2523,7 @@
         <v>11428</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2530,7 +2531,7 @@
         <v>11429</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2538,7 +2539,7 @@
         <v>11430</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2546,7 +2547,7 @@
         <v>11431</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2554,7 +2555,7 @@
         <v>11432</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2562,7 +2563,7 @@
         <v>11433</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2570,7 +2571,7 @@
         <v>11434</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2578,7 +2579,7 @@
         <v>11435</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2599,7 +2600,7 @@
         <v>20001</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2607,7 +2608,7 @@
         <v>20011</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2615,7 +2616,7 @@
         <v>20012</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2623,7 +2624,7 @@
         <v>20013</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2631,7 +2632,7 @@
         <v>20014</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2639,7 +2640,7 @@
         <v>20015</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2647,7 +2648,7 @@
         <v>20016</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2655,7 +2656,7 @@
         <v>20017</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2663,7 +2664,7 @@
         <v>20018</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2671,7 +2672,7 @@
         <v>20019</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2679,7 +2680,7 @@
         <v>20020</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2687,7 +2688,7 @@
         <v>20021</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2695,7 +2696,7 @@
         <v>20022</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2703,7 +2704,7 @@
         <v>20023</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2711,7 +2712,7 @@
         <v>20024</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2719,7 +2720,7 @@
         <v>20025</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2727,7 +2728,7 @@
         <v>20101</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2735,7 +2736,7 @@
         <v>20111</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2743,7 +2744,7 @@
         <v>20112</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2751,7 +2752,7 @@
         <v>20113</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2759,7 +2760,7 @@
         <v>20114</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2855,7 +2856,7 @@
         <v>20201</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3012,7 +3013,7 @@
         <v>40001</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3025,7 +3026,7 @@
         <v>41001</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3033,7 +3034,7 @@
         <v>41002</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3041,7 +3042,7 @@
         <v>41003</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3049,7 +3050,7 @@
         <v>41004</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3057,7 +3058,7 @@
         <v>41005</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3065,7 +3066,7 @@
         <v>41006</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3073,7 +3074,7 @@
         <v>41007</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3081,7 +3082,7 @@
         <v>41008</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3089,7 +3090,7 @@
         <v>41009</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3097,7 +3098,7 @@
         <v>41010</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3105,7 +3106,7 @@
         <v>41011</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3113,7 +3114,7 @@
         <v>41012</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3121,7 +3122,7 @@
         <v>41013</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3129,7 +3130,7 @@
         <v>41014</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3137,7 +3138,7 @@
         <v>41015</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3145,7 +3146,7 @@
         <v>41016</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3153,7 +3154,7 @@
         <v>41017</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3161,7 +3162,7 @@
         <v>41018</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3169,7 +3170,7 @@
         <v>41019</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3177,7 +3178,7 @@
         <v>41020</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3185,7 +3186,7 @@
         <v>41021</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3193,7 +3194,7 @@
         <v>41022</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3201,7 +3202,7 @@
         <v>41023</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3209,7 +3210,7 @@
         <v>41024</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3217,7 +3218,7 @@
         <v>41025</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3225,7 +3226,7 @@
         <v>41026</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3233,7 +3234,7 @@
         <v>41027</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3241,7 +3242,7 @@
         <v>28</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3249,7 +3250,7 @@
         <v>28</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3257,7 +3258,7 @@
         <v>28</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3265,7 +3266,7 @@
         <v>28</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3273,7 +3274,7 @@
         <v>28</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3281,7 +3282,7 @@
         <v>28</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3289,7 +3290,7 @@
         <v>28</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3297,7 +3298,7 @@
         <v>28</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3305,7 +3306,7 @@
         <v>28</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3313,7 +3314,7 @@
         <v>28</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3321,7 +3322,7 @@
         <v>28</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3329,7 +3330,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3337,7 +3338,7 @@
         <v>28</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3345,7 +3346,7 @@
         <v>28</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3353,7 +3354,7 @@
         <v>28</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3361,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3369,7 +3370,7 @@
         <v>28</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3382,7 +3383,7 @@
         <v>42501</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3390,7 +3391,7 @@
         <v>42502</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3398,7 +3399,7 @@
         <v>42503</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3411,7 +3412,7 @@
         <v>42801</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3419,7 +3420,7 @@
         <v>42802</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3427,7 +3428,7 @@
         <v>42803</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3435,7 +3436,7 @@
         <v>42804</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3443,7 +3444,7 @@
         <v>42805</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3451,7 +3452,7 @@
         <v>42806</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3459,7 +3460,7 @@
         <v>42807</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3467,7 +3468,7 @@
         <v>42808</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3480,7 +3481,7 @@
         <v>43001</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3504,7 +3505,7 @@
         <v>43004</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3512,7 +3513,7 @@
         <v>43005</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3520,7 +3521,7 @@
         <v>43006</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3528,7 +3529,7 @@
         <v>43007</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3552,7 +3553,7 @@
         <v>43010</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3560,7 +3561,7 @@
         <v>43011</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3568,7 +3569,7 @@
         <v>43012</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3632,7 +3633,7 @@
         <v>43020</v>
       </c>
       <c r="B264" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3648,7 +3649,7 @@
         <v>43022</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3656,7 +3657,7 @@
         <v>43023</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3664,7 +3665,7 @@
         <v>43024</v>
       </c>
       <c r="B269" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3672,7 +3673,7 @@
         <v>43025</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3688,7 +3689,7 @@
         <v>43027</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3704,7 +3705,7 @@
         <v>43029</v>
       </c>
       <c r="B276" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3712,7 +3713,7 @@
         <v>43030</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3720,7 +3721,7 @@
         <v>43031</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3728,7 +3729,7 @@
         <v>43032</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3744,7 +3745,7 @@
         <v>43034</v>
       </c>
       <c r="B283" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3760,7 +3761,7 @@
         <v>43036</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3768,7 +3769,7 @@
         <v>43100</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3776,7 +3777,7 @@
         <v>43101</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3784,7 +3785,7 @@
         <v>43102</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3792,7 +3793,7 @@
         <v>43103</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3800,7 +3801,7 @@
         <v>43104</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3808,7 +3809,7 @@
         <v>43105</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3816,7 +3817,7 @@
         <v>43106</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3824,7 +3825,7 @@
         <v>43107</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3832,7 +3833,7 @@
         <v>43108</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3840,7 +3841,7 @@
         <v>43109</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3848,7 +3849,7 @@
         <v>43110</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3856,7 +3857,7 @@
         <v>43201</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3864,7 +3865,7 @@
         <v>43202</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3872,7 +3873,7 @@
         <v>43203</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="33">
@@ -3880,7 +3881,7 @@
         <v>43204</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="33">
@@ -3888,7 +3889,7 @@
         <v>43205</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="33">
@@ -3896,7 +3897,7 @@
         <v>43206</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="33">
@@ -3904,7 +3905,7 @@
         <v>43207</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="33">
@@ -3912,7 +3913,7 @@
         <v>43208</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="33">
@@ -3920,7 +3921,7 @@
         <v>43209</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="33">
@@ -3928,7 +3929,7 @@
         <v>43210</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
